--- a/avg_score.xlsx
+++ b/avg_score.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,26 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdave\Documents\Data_Science_Projects\nba_salary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BFD94477-ADD2-4F46-A8C1-DCE686EBC735}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3ADB4C-4E3D-46EC-B702-FA00156CA014}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="-16410" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="19530" yWindow="-16410" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="avg_score" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">avg_score!$A$1:$Q$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">avg_score!$A$1:$Q$103</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="444">
   <si>
     <t>Rk</t>
   </si>
@@ -1344,15 +1352,6 @@
   </si>
   <si>
     <t>3.9 Pts 0.9 Reb 0.2 Ast</t>
-  </si>
-  <si>
-    <t>Isaiah Thomas\thomais02</t>
-  </si>
-  <si>
-    <t>30-182</t>
-  </si>
-  <si>
-    <t>8.1 Pts 1.1 Reb 1.9 Ast</t>
   </si>
   <si>
     <t>Pred</t>
@@ -1373,9 +1372,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1810,9 +1809,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1855,60 +1853,58 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1924,9 +1920,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jai Dave" refreshedDate="43686.435595601855" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="103">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jai Dave" refreshedDate="43686.435595601855" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="103" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:Q104" sheet="avg_score"/>
+    <worksheetSource ref="B1:Q103" sheet="avg_score"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Rk" numFmtId="0">
@@ -3875,7 +3871,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -4342,7 +4338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4356,242 +4352,242 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>444</v>
+      <c r="A3" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>19.441387052166679</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>12.590437496673342</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>11.641417671755068</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>8.1378346247926903</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>6.1681938145613984</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>5.594589515283996</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>5.1822099998528</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>4.6863966842901803</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>4.5557816621352405</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>3.5100981540066112</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>-0.25421767153422259</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>-1.9118124415032001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>-2.0979867386920503</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>-3.3870658729727818</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>-4.6155946965426402</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>-6.1931118978630408</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>-6.5626862713433001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>-7.1174385112450587</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>-8.5081562391526226</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>-9.8162097228770406</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>-10.38903650479549</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>-10.729737849141081</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>-12.639686348347819</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>-13.015352160111632</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>-14.894857059134335</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>-17.463478926453938</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>-20.352491049921753</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>-25.332034729460918</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B32" s="4">
+      <c r="A32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="3">
         <v>-93.772608015574903</v>
       </c>
     </row>
@@ -4601,16 +4597,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4654,27 +4650,27 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -4683,2396 +4679,2392 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="M2">
-        <v>189.9</v>
+        <v>15</v>
       </c>
       <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
         <v>5</v>
       </c>
-      <c r="O2">
-        <v>37.979999999999997</v>
-      </c>
-      <c r="P2" s="5">
-        <v>22.2358392206899</v>
-      </c>
-      <c r="Q2" s="5">
-        <f>O2-P2</f>
-        <v>15.744160779310096</v>
-      </c>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="P2" s="4">
+        <v>15.0063037856031</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>P2-O2</f>
+        <v>10.0063037856031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>271</v>
       </c>
       <c r="I3">
-        <v>6.1</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="s">
         <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c r="M3">
-        <v>177.5</v>
+        <v>5.25</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>35.5</v>
-      </c>
-      <c r="P3" s="5">
-        <v>20.483537703950201</v>
-      </c>
-      <c r="Q3" s="5">
-        <f>O3-P3</f>
-        <v>15.016462296049799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.625</v>
+      </c>
+      <c r="P3" s="4">
+        <v>11.6602040354393</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>P3-O3</f>
+        <v>9.0352040354392997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>419</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>420</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>421</v>
       </c>
       <c r="I4">
-        <v>7.1</v>
+        <v>0.8</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>394</v>
       </c>
       <c r="M4">
-        <v>180</v>
+        <v>1.73</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>36</v>
-      </c>
-      <c r="P4" s="5">
-        <v>22.726170291645602</v>
-      </c>
-      <c r="Q4" s="5">
-        <f>O4-P4</f>
-        <v>13.273829708354398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1.73</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10.5242433173041</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>P4-O4</f>
+        <v>8.7942433173040993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5">
+        <v>5.9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P5" s="4">
+        <v>12.041397102604501</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>P5-O5</f>
+        <v>7.9413971026045012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6">
         <v>44</v>
       </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5">
-        <v>3.2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>224</v>
-      </c>
-      <c r="M5">
-        <v>56.7</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="P5" s="5">
-        <v>7.2585823282449304</v>
-      </c>
-      <c r="Q5" s="5">
-        <f>O5-P5</f>
-        <v>11.641417671755068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>33</v>
-      </c>
-      <c r="B6">
-        <v>38</v>
-      </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="I6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>2.56</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>15</v>
-      </c>
-      <c r="P6" s="5">
-        <v>7.5913283246393402</v>
-      </c>
-      <c r="Q6" s="5">
-        <f>O6-P6</f>
-        <v>7.4086716753606598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.56</v>
+      </c>
+      <c r="P6" s="4">
+        <v>10.484589030559601</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>P6-O6</f>
+        <v>7.9245890305596003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="I7">
-        <v>7.9</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="M7">
-        <v>140.69999999999999</v>
+        <v>15</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>35.174999999999997</v>
-      </c>
-      <c r="P7" s="5">
-        <v>29.006806185438599</v>
-      </c>
-      <c r="Q7" s="5">
-        <f>O7-P7</f>
-        <v>6.1681938145613984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+        <v>7.5</v>
+      </c>
+      <c r="P7" s="4">
+        <v>15.4023623649495</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>P7-O7</f>
+        <v>7.9023623649495001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>9.74</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>13.3333333333333</v>
-      </c>
-      <c r="P8" s="5">
-        <v>7.2093122036424999</v>
-      </c>
-      <c r="Q8" s="5">
-        <f>O8-P8</f>
-        <v>6.1240211296908003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+        <v>4.87</v>
+      </c>
+      <c r="P8" s="4">
+        <v>12.5908840712023</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>P8-O8</f>
+        <v>7.7208840712022999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>355</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>356</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>357</v>
+        <v>135</v>
       </c>
       <c r="I9">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>358</v>
+        <v>136</v>
       </c>
       <c r="M9">
-        <v>30.75</v>
+        <v>31.5</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>15.375</v>
-      </c>
-      <c r="P9" s="5">
-        <v>9.3357486222062604</v>
-      </c>
-      <c r="Q9" s="5">
-        <f>O9-P9</f>
-        <v>6.0392513777937396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+        <v>10.5</v>
+      </c>
+      <c r="P9" s="4">
+        <v>17.7227245111226</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>P9-O9</f>
+        <v>7.2227245111225997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="I10">
-        <v>11.5</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M10">
-        <v>164.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>41.1</v>
-      </c>
-      <c r="P10" s="5">
-        <v>35.543999825760999</v>
-      </c>
-      <c r="Q10" s="5">
-        <f>O10-P10</f>
-        <v>5.5560001742390028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P10" s="4">
+        <v>11.280699692689399</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>P10-O10</f>
+        <v>7.1806996926893998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="I11">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11">
+        <v>9.77</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>4.8849999999999998</v>
+      </c>
+      <c r="P11" s="4">
+        <v>11.985424990009101</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>P11-O11</f>
+        <v>7.1004249900091008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="K11" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11">
-        <v>15</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>15</v>
-      </c>
-      <c r="P11" s="5">
-        <v>10.1355691284774</v>
-      </c>
-      <c r="Q11" s="5">
-        <f>O11-P11</f>
-        <v>4.8644308715226003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <v>7.1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12">
+        <v>39.96</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>9.99</v>
+      </c>
+      <c r="P12" s="4">
+        <v>16.746400521017598</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>P12-O12</f>
+        <v>6.7564005210175981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>66</v>
-      </c>
-      <c r="B12">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>308</v>
-      </c>
-      <c r="I12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M12">
-        <v>30</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>15</v>
-      </c>
-      <c r="P12" s="5">
-        <v>10.4006852474638</v>
-      </c>
-      <c r="Q12" s="5">
-        <f>O12-P12</f>
-        <v>4.5993147525362001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>98</v>
-      </c>
-      <c r="B13">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>425</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>426</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>428</v>
+        <v>71</v>
       </c>
       <c r="M13">
-        <v>7.42</v>
+        <v>43.6</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>3.71</v>
-      </c>
-      <c r="P13" s="5">
-        <v>-0.87930882125739196</v>
-      </c>
-      <c r="Q13" s="5">
-        <f>O13-P13</f>
-        <v>4.5893088212573918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+        <v>14.533333333333299</v>
+      </c>
+      <c r="P13" s="4">
+        <v>21.286979467050202</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>P13-O13</f>
+        <v>6.7536461337169023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>359</v>
+        <v>285</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="I14">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="M14">
-        <v>9.8000000000000007</v>
+        <v>11.72</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
       <c r="O14">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P14" s="5">
-        <v>0.33636738428311103</v>
-      </c>
-      <c r="Q14" s="5">
-        <f>O14-P14</f>
-        <v>4.5636326157168892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5.86</v>
+      </c>
+      <c r="P14" s="4">
+        <v>12.4226862713433</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>P14-O14</f>
+        <v>6.5626862713433001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B15">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15" s="5">
-        <v>-0.56017377523307899</v>
-      </c>
-      <c r="Q15" s="5">
-        <f>O15-P15</f>
-        <v>4.5601737752330793</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="P15" s="4">
+        <v>8.8223805832044206</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>P15-O15</f>
+        <v>6.2573805832044211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>316</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" t="s">
+        <v>318</v>
+      </c>
+      <c r="I16">
+        <v>2.1</v>
+      </c>
+      <c r="J16" t="s">
         <v>68</v>
       </c>
-      <c r="H16" t="s">
-        <v>207</v>
-      </c>
-      <c r="I16">
-        <v>3.5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>167</v>
-      </c>
       <c r="K16" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>4.8</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>12.3333333333333</v>
-      </c>
-      <c r="P16" s="5">
-        <v>7.9806369928397398</v>
-      </c>
-      <c r="Q16" s="5">
-        <f>O16-P16</f>
-        <v>4.3526963404935604</v>
+        <v>4.8</v>
+      </c>
+      <c r="P16" s="4">
+        <v>10.985101337553701</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>P16-O16</f>
+        <v>6.185101337553701</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="I17">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="M17">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>21.25</v>
-      </c>
-      <c r="P17" s="5">
-        <v>16.9431993206525</v>
-      </c>
-      <c r="Q17" s="5">
-        <f>O17-P17</f>
-        <v>4.3068006793475</v>
+        <v>3</v>
+      </c>
+      <c r="P17" s="4">
+        <v>9.0711197312070304</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>P17-O17</f>
+        <v>6.0711197312070304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="I18">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>17</v>
-      </c>
-      <c r="P18" s="5">
-        <v>12.9388118687997</v>
-      </c>
-      <c r="Q18" s="5">
-        <f>O18-P18</f>
-        <v>4.0611881312003</v>
+        <v>3.5</v>
+      </c>
+      <c r="P18" s="4">
+        <v>9.4828677308919698</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>P18-O18</f>
+        <v>5.9828677308919698</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B19">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>392</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>161</v>
+        <v>393</v>
       </c>
       <c r="I19">
-        <v>4.4000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>1.73</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>16</v>
-      </c>
-      <c r="P19" s="5">
-        <v>11.9859669155957</v>
-      </c>
-      <c r="Q19" s="5">
-        <f>O19-P19</f>
-        <v>4.0140330844043</v>
+        <v>1.73</v>
+      </c>
+      <c r="P19" s="4">
+        <v>7.3693844424838604</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>P19-O19</f>
+        <v>5.6393844424838608</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="I20">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="M20">
-        <v>85</v>
+        <v>26.5</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>21.25</v>
-      </c>
-      <c r="P20" s="5">
-        <v>17.311650525151901</v>
-      </c>
-      <c r="Q20" s="5">
-        <f>O20-P20</f>
-        <v>3.9383494748480992</v>
+        <v>13.25</v>
+      </c>
+      <c r="P20" s="4">
+        <v>18.212041749742902</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>P20-O20</f>
+        <v>4.9620417497429017</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I21">
-        <v>7.5</v>
+        <v>10.1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N21">
         <v>4</v>
       </c>
       <c r="O21">
-        <v>27.25</v>
-      </c>
-      <c r="P21" s="5">
-        <v>23.689228444009899</v>
-      </c>
-      <c r="Q21" s="5">
-        <f>O21-P21</f>
-        <v>3.560771555990101</v>
+        <v>25</v>
+      </c>
+      <c r="P21" s="4">
+        <v>29.854434516087899</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>P21-O21</f>
+        <v>4.854434516087899</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B22">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="I22">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="M22">
-        <v>9.77</v>
+        <v>2</v>
       </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>2</v>
       </c>
-      <c r="O22">
-        <v>4.8849999999999998</v>
-      </c>
-      <c r="P22" s="5">
-        <v>2.3121744840588399</v>
-      </c>
-      <c r="Q22" s="5">
-        <f>O22-P22</f>
-        <v>2.5728255159411599</v>
+      <c r="P22" s="4">
+        <v>6.7967350812380802</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>P22-O22</f>
+        <v>4.7967350812380802</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>387</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>388</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>389</v>
       </c>
       <c r="I23">
-        <v>9.5</v>
+        <v>1.3</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
       <c r="M23">
-        <v>103.13</v>
+        <v>5.18</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>34.376666666666601</v>
-      </c>
-      <c r="P23" s="5">
-        <v>31.851585398685501</v>
-      </c>
-      <c r="Q23" s="5">
-        <f>O23-P23</f>
-        <v>2.5250812679811006</v>
+        <v>2.59</v>
+      </c>
+      <c r="P23" s="4">
+        <v>7.2233908705859902</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>P23-O23</f>
+        <v>4.6333908705859903</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="I24">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="M24">
-        <v>35.9</v>
+        <v>29</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>8.9749999999999996</v>
-      </c>
-      <c r="P24" s="5">
-        <v>6.4596572794790301</v>
-      </c>
-      <c r="Q24" s="5">
-        <f>O24-P24</f>
-        <v>2.5153427205209695</v>
+        <v>9.6666666666666607</v>
+      </c>
+      <c r="P24" s="4">
+        <v>14.240204751799601</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>P24-O24</f>
+        <v>4.5735380851329399</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" t="s">
+        <v>219</v>
+      </c>
+      <c r="I25">
+        <v>3.3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
+      </c>
+      <c r="N25">
         <v>3</v>
       </c>
-      <c r="B25">
+      <c r="O25">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25">
-        <v>9.1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25">
-        <v>140.69999999999999</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
-      </c>
-      <c r="O25">
-        <v>35.174999999999997</v>
-      </c>
-      <c r="P25" s="5">
-        <v>32.931841743722501</v>
-      </c>
-      <c r="Q25" s="5">
-        <f>O25-P25</f>
-        <v>2.2431582562774963</v>
+      <c r="P25" s="4">
+        <v>8.3134580997393108</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>P25-O25</f>
+        <v>4.3134580997393108</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
       </c>
       <c r="H26" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="I26">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="K26" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O26">
-        <v>8</v>
-      </c>
-      <c r="P26" s="5">
-        <v>5.8683588683285199</v>
-      </c>
-      <c r="Q26" s="5">
-        <f>O26-P26</f>
-        <v>2.1316411316714801</v>
+        <v>3.8333333333333299</v>
+      </c>
+      <c r="P26" s="4">
+        <v>8.1282348274100507</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>P26-O26</f>
+        <v>4.2949014940767203</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="M27">
-        <v>117.3</v>
+        <v>52</v>
       </c>
       <c r="N27">
         <v>4</v>
       </c>
       <c r="O27">
-        <v>29.324999999999999</v>
-      </c>
-      <c r="P27" s="5">
-        <v>27.2535804539183</v>
-      </c>
-      <c r="Q27" s="5">
-        <f>O27-P27</f>
-        <v>2.0714195460816995</v>
+        <v>13</v>
+      </c>
+      <c r="P27" s="4">
+        <v>17.215315845873398</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>P27-O27</f>
+        <v>4.2153158458733984</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>348</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>349</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="I28">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s">
-        <v>351</v>
+        <v>193</v>
       </c>
       <c r="M28">
-        <v>14.24</v>
+        <v>9</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28">
-        <v>7.12</v>
-      </c>
-      <c r="P28" s="5">
-        <v>5.5450241232298803</v>
-      </c>
-      <c r="Q28" s="5">
-        <f>O28-P28</f>
-        <v>1.5749758767701199</v>
+        <v>3</v>
+      </c>
+      <c r="P28" s="4">
+        <v>7.0384679337781799</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>P28-O28</f>
+        <v>4.0384679337781799</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>401</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>402</v>
       </c>
       <c r="I29">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>403</v>
       </c>
       <c r="M29">
-        <v>62.1</v>
+        <v>4.54</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>20.7</v>
-      </c>
-      <c r="P29" s="5">
-        <v>19.290042745730101</v>
-      </c>
-      <c r="Q29" s="5">
-        <f>O29-P29</f>
-        <v>1.4099572542698979</v>
+        <v>2.27</v>
+      </c>
+      <c r="P29" s="4">
+        <v>5.7862612752700802</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>P29-O29</f>
+        <v>3.5162612752700801</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>433</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>434</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="H30" t="s">
-        <v>435</v>
+        <v>144</v>
       </c>
       <c r="I30">
-        <v>0.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="K30" t="s">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="M30">
-        <v>2.02</v>
+        <v>20</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>2.02</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0.62122665089094797</v>
-      </c>
-      <c r="Q30" s="5">
-        <f>O30-P30</f>
-        <v>1.3987733491090522</v>
+        <v>10</v>
+      </c>
+      <c r="P30" s="4">
+        <v>13.471493481990301</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>P30-O30</f>
+        <v>3.4714934819903007</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>408</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="H31" t="s">
-        <v>410</v>
+        <v>184</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="K31" t="s">
-        <v>411</v>
+        <v>185</v>
       </c>
       <c r="M31">
-        <v>2.02</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>2.02</v>
-      </c>
-      <c r="P31" s="5">
-        <v>0.65890263352109102</v>
-      </c>
-      <c r="Q31" s="5">
-        <f>O31-P31</f>
-        <v>1.361097366478909</v>
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="P31" s="4">
+        <v>11.6262043744113</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>P31-O31</f>
+        <v>3.3362043744113006</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="I32">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="M32">
-        <v>54</v>
+        <v>4.01</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>13.5</v>
-      </c>
-      <c r="P32" s="5">
-        <v>12.301482484422699</v>
-      </c>
-      <c r="Q32" s="5">
-        <f>O32-P32</f>
-        <v>1.1985175155773007</v>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="P32" s="4">
+        <v>5.32294419437362</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>P32-O32</f>
+        <v>3.3179441943736201</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>397</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="I33">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J33" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>2.02</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>5.5</v>
-      </c>
-      <c r="P33" s="5">
-        <v>4.5680164714438298</v>
-      </c>
-      <c r="Q33" s="5">
-        <f>O33-P33</f>
-        <v>0.93198352855617017</v>
+        <v>2.02</v>
+      </c>
+      <c r="P33" s="4">
+        <v>5.1829041096033697</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>P33-O33</f>
+        <v>3.1629041096033697</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B34">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>244</v>
+        <v>412</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>245</v>
+        <v>413</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="H34" t="s">
-        <v>246</v>
+        <v>414</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s">
-        <v>247</v>
+        <v>415</v>
       </c>
       <c r="M34">
-        <v>26.44</v>
+        <v>1.44</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>8.8133333333333308</v>
-      </c>
-      <c r="P34" s="5">
-        <v>8.0841703839013004</v>
-      </c>
-      <c r="Q34" s="5">
-        <f>O34-P34</f>
-        <v>0.72916294943203042</v>
+        <v>1.44</v>
+      </c>
+      <c r="P34" s="4">
+        <v>4.5852218773956102</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>P34-O34</f>
+        <v>3.1452218773956102</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>422</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>423</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>424</v>
+        <v>75</v>
       </c>
       <c r="I35">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>1.75</v>
-      </c>
-      <c r="P35" s="5">
-        <v>1.03111212127064</v>
-      </c>
-      <c r="Q35" s="5">
-        <f>O35-P35</f>
-        <v>0.71888787872936</v>
+        <v>18.274999999999999</v>
+      </c>
+      <c r="P35" s="4">
+        <v>21.374710830610201</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>P35-O35</f>
+        <v>3.0997108306102028</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B36">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I36">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="M36">
-        <v>2.56</v>
+        <v>9.77</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>2.56</v>
-      </c>
-      <c r="P36" s="5">
-        <v>1.9149701525032401</v>
-      </c>
-      <c r="Q36" s="5">
-        <f>O36-P36</f>
-        <v>0.64502984749675996</v>
+        <v>4.8849999999999998</v>
+      </c>
+      <c r="P36" s="4">
+        <v>7.9391220105583598</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>P36-O36</f>
+        <v>3.05412201055836</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H37" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="I37">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O37">
-        <v>13.3333333333333</v>
-      </c>
-      <c r="P37" s="5">
-        <v>12.862238789874301</v>
-      </c>
-      <c r="Q37" s="5">
-        <f>O37-P37</f>
-        <v>0.47109454345899948</v>
+        <v>35.174999999999997</v>
+      </c>
+      <c r="P37" s="4">
+        <v>38.0408815068443</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>P37-O37</f>
+        <v>2.8658815068443033</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B38">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="I38">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="J38" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>2.56</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>12.5</v>
-      </c>
-      <c r="P38" s="5">
-        <v>12.1007431084102</v>
-      </c>
-      <c r="Q38" s="5">
-        <f>O38-P38</f>
-        <v>0.39925689158980049</v>
+        <v>2.56</v>
+      </c>
+      <c r="P38" s="4">
+        <v>5.3530494162396902</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>P38-O38</f>
+        <v>2.7930494162396902</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B39">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>378</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>237</v>
+        <v>379</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
       </c>
       <c r="G39" t="s">
+        <v>380</v>
+      </c>
+      <c r="H39" t="s">
+        <v>381</v>
+      </c>
+      <c r="I39">
+        <v>1.4</v>
+      </c>
+      <c r="J39" t="s">
         <v>20</v>
       </c>
-      <c r="H39" t="s">
-        <v>238</v>
-      </c>
-      <c r="I39">
-        <v>3.1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>160</v>
-      </c>
       <c r="K39" t="s">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>7</v>
-      </c>
-      <c r="P39" s="5">
-        <v>6.7638066131076702</v>
-      </c>
-      <c r="Q39" s="5">
-        <f>O39-P39</f>
-        <v>0.23619338689232983</v>
+        <v>1.75</v>
+      </c>
+      <c r="P39" s="4">
+        <v>4.06302499394591</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>P39-O39</f>
+        <v>2.31302499394591</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B40">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="H40" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="I40">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="K40" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="M40">
-        <v>28.51</v>
+        <v>1.67</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>7.1275000000000004</v>
-      </c>
-      <c r="P40" s="5">
-        <v>7.01816149344448</v>
-      </c>
-      <c r="Q40" s="5">
-        <f>O40-P40</f>
-        <v>0.10933850655552035</v>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="P40" s="4">
+        <v>3.1360171476168301</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>P40-O40</f>
+        <v>2.3010171476168302</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="H41" t="s">
-        <v>279</v>
+        <v>166</v>
       </c>
       <c r="I41">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="K41" t="s">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>9.74</v>
       </c>
       <c r="N41">
         <v>2</v>
       </c>
       <c r="O41">
-        <v>8</v>
-      </c>
-      <c r="P41" s="5">
-        <v>8.2641931207103205</v>
-      </c>
-      <c r="Q41" s="5">
-        <f>O41-P41</f>
-        <v>-0.26419312071032053</v>
+        <v>4.87</v>
+      </c>
+      <c r="P41" s="4">
+        <v>7.09388633994892</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>P41-O41</f>
+        <v>2.2238863399489199</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>374</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="H42" t="s">
-        <v>127</v>
+        <v>376</v>
       </c>
       <c r="I42">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="J42" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="K42" t="s">
-        <v>128</v>
+        <v>377</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>4.5</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="P42" s="5">
-        <v>8.77289804038287</v>
-      </c>
-      <c r="Q42" s="5">
-        <f>O42-P42</f>
-        <v>-0.43956470704953965</v>
+        <v>2.25</v>
+      </c>
+      <c r="P42" s="4">
+        <v>4.4732380926165503</v>
+      </c>
+      <c r="Q42" s="4">
+        <f>P42-O42</f>
+        <v>2.2232380926165503</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="H43" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="I43">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="J43" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="K43" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="M43">
-        <v>30.15</v>
+        <v>30</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>10.049999999999899</v>
-      </c>
-      <c r="P43" s="5">
-        <v>10.569814083045999</v>
-      </c>
-      <c r="Q43" s="5">
-        <f>O43-P43</f>
-        <v>-0.5198140830461</v>
+        <v>15</v>
+      </c>
+      <c r="P43" s="4">
+        <v>17.221206495507602</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>P43-O43</f>
+        <v>2.2212064955076016</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B44">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>363</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="I44">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="J44" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>123</v>
+        <v>366</v>
       </c>
       <c r="M44">
-        <v>9.77</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>4.8849999999999998</v>
-      </c>
-      <c r="P44" s="5">
-        <v>5.4189478714478501</v>
-      </c>
-      <c r="Q44" s="5">
-        <f>O44-P44</f>
-        <v>-0.53394787144785028</v>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P44" s="4">
+        <v>4.5346870245047004</v>
+      </c>
+      <c r="Q44" s="4">
+        <f>P44-O44</f>
+        <v>2.2146870245047006</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B45">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>352</v>
+        <v>436</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>437</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
       </c>
-      <c r="G45" t="s">
-        <v>296</v>
-      </c>
       <c r="H45" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="I45">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="J45" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="K45" t="s">
-        <v>354</v>
+        <v>284</v>
       </c>
       <c r="M45">
-        <v>6.56</v>
+        <v>4.01</v>
       </c>
       <c r="N45">
         <v>2</v>
       </c>
       <c r="O45">
-        <v>3.28</v>
-      </c>
-      <c r="P45" s="5">
-        <v>3.8403574783408798</v>
-      </c>
-      <c r="Q45" s="5">
-        <f>O45-P45</f>
-        <v>-0.56035747834088001</v>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="P45" s="4">
+        <v>4.1835511258638203</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>P45-O45</f>
+        <v>2.1785511258638204</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B46">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="D46" t="s">
         <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="H46" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="I46">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="K46" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="M46">
-        <v>1.62</v>
+        <v>13</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>1.62</v>
-      </c>
-      <c r="P46" s="5">
-        <v>2.3445731475622398</v>
-      </c>
-      <c r="Q46" s="5">
-        <f>O46-P46</f>
-        <v>-0.72457314756223967</v>
+        <v>6.5</v>
+      </c>
+      <c r="P46" s="4">
+        <v>8.5979867386920503</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>P46-O46</f>
+        <v>2.0979867386920503</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="I47">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="K47" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="M47">
-        <v>2.56</v>
+        <v>7</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>2.56</v>
-      </c>
-      <c r="P47" s="5">
-        <v>3.4547209885474901</v>
-      </c>
-      <c r="Q47" s="5">
-        <f>O47-P47</f>
-        <v>-0.89472098854749005</v>
+        <v>3.5</v>
+      </c>
+      <c r="P47" s="4">
+        <v>5.5644873253552403</v>
+      </c>
+      <c r="Q47" s="4">
+        <f>P47-O47</f>
+        <v>2.0644873253552403</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="K48" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>1.88</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>5</v>
-      </c>
-      <c r="P48" s="5">
-        <v>5.9919431496466</v>
-      </c>
-      <c r="Q48" s="5">
-        <f>O48-P48</f>
-        <v>-0.99194314964660002</v>
+        <v>1.88</v>
+      </c>
+      <c r="P48" s="4">
+        <v>3.8063166615051101</v>
+      </c>
+      <c r="Q48" s="4">
+        <f>P48-O48</f>
+        <v>1.9263166615051102</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B49">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -7081,355 +7073,355 @@
         <v>105</v>
       </c>
       <c r="H49" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="I49">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J49" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="K49" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="M49">
-        <v>2.56</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>2.56</v>
-      </c>
-      <c r="P49" s="5">
-        <v>3.7033293442258999</v>
-      </c>
-      <c r="Q49" s="5">
-        <f>O49-P49</f>
-        <v>-1.1433293442258998</v>
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="P49" s="4">
+        <v>4.0668124415031999</v>
+      </c>
+      <c r="Q49" s="4">
+        <f>P49-O49</f>
+        <v>1.9118124415032001</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B50">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="I50">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="J50" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="K50" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="M50">
-        <v>10</v>
+        <v>9.77</v>
       </c>
       <c r="N50">
         <v>2</v>
       </c>
       <c r="O50">
-        <v>5</v>
-      </c>
-      <c r="P50" s="5">
-        <v>6.16286960369212</v>
-      </c>
-      <c r="Q50" s="5">
-        <f>O50-P50</f>
-        <v>-1.16286960369212</v>
+        <v>4.8849999999999998</v>
+      </c>
+      <c r="P50" s="4">
+        <v>6.6887040739844297</v>
+      </c>
+      <c r="Q50" s="4">
+        <f>P50-O50</f>
+        <v>1.8037040739844299</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B51">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D51" t="s">
         <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I51">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J51" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="M51">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N51">
         <v>2</v>
       </c>
       <c r="O51">
-        <v>6</v>
-      </c>
-      <c r="P51" s="5">
-        <v>7.5560286081872796</v>
-      </c>
-      <c r="Q51" s="5">
-        <f>O51-P51</f>
-        <v>-1.5560286081872796</v>
+        <v>3</v>
+      </c>
+      <c r="P51" s="4">
+        <v>4.7210205160211203</v>
+      </c>
+      <c r="Q51" s="4">
+        <f>P51-O51</f>
+        <v>1.7210205160211203</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B52">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="D52" t="s">
         <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
+        <v>371</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="H52" t="s">
-        <v>262</v>
+        <v>372</v>
       </c>
       <c r="I52">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K52" t="s">
-        <v>251</v>
+        <v>373</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>2</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
-      </c>
-      <c r="P52" s="5">
-        <v>5.1287126798122804</v>
-      </c>
-      <c r="Q52" s="5">
-        <f>O52-P52</f>
-        <v>-1.6287126798122804</v>
+        <v>8</v>
+      </c>
+      <c r="P52" s="4">
+        <v>9.6514708797304394</v>
+      </c>
+      <c r="Q52" s="4">
+        <f>P52-O52</f>
+        <v>1.6514708797304394</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="D53" t="s">
         <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="I53">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="J53" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K53" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N53">
         <v>2</v>
       </c>
       <c r="O53">
-        <v>8</v>
-      </c>
-      <c r="P53" s="5">
-        <v>9.6514708797304394</v>
-      </c>
-      <c r="Q53" s="5">
-        <f>O53-P53</f>
-        <v>-1.6514708797304394</v>
+        <v>3.5</v>
+      </c>
+      <c r="P53" s="4">
+        <v>5.1287126798122804</v>
+      </c>
+      <c r="Q53" s="4">
+        <f>P53-O53</f>
+        <v>1.6287126798122804</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B54">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D54" t="s">
         <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="H54" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="I54">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J54" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K54" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M54">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N54">
         <v>2</v>
       </c>
       <c r="O54">
-        <v>3</v>
-      </c>
-      <c r="P54" s="5">
-        <v>4.7210205160211203</v>
-      </c>
-      <c r="Q54" s="5">
-        <f>O54-P54</f>
-        <v>-1.7210205160211203</v>
+        <v>6</v>
+      </c>
+      <c r="P54" s="4">
+        <v>7.5560286081872796</v>
+      </c>
+      <c r="Q54" s="4">
+        <f>P54-O54</f>
+        <v>1.5560286081872796</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B55">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="I55">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="J55" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="M55">
-        <v>9.77</v>
+        <v>10</v>
       </c>
       <c r="N55">
         <v>2</v>
       </c>
       <c r="O55">
-        <v>4.8849999999999998</v>
-      </c>
-      <c r="P55" s="5">
-        <v>6.6887040739844297</v>
-      </c>
-      <c r="Q55" s="5">
-        <f>O55-P55</f>
-        <v>-1.8037040739844299</v>
+        <v>5</v>
+      </c>
+      <c r="P55" s="4">
+        <v>6.16286960369212</v>
+      </c>
+      <c r="Q55" s="4">
+        <f>P55-O55</f>
+        <v>1.16286960369212</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B56">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -7438,2392 +7430,2395 @@
         <v>105</v>
       </c>
       <c r="H56" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="I56">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="J56" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="K56" t="s">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="M56">
-        <v>4.3099999999999996</v>
+        <v>2.56</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>2.1549999999999998</v>
-      </c>
-      <c r="P56" s="5">
-        <v>4.0668124415031999</v>
-      </c>
-      <c r="Q56" s="5">
-        <f>O56-P56</f>
-        <v>-1.9118124415032001</v>
+        <v>2.56</v>
+      </c>
+      <c r="P56" s="4">
+        <v>3.7033293442258999</v>
+      </c>
+      <c r="Q56" s="4">
+        <f>P56-O56</f>
+        <v>1.1433293442258998</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B57">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D57" t="s">
         <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="H57" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J57" t="s">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="K57" t="s">
-        <v>323</v>
+        <v>101</v>
       </c>
       <c r="M57">
-        <v>1.88</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O57">
-        <v>1.88</v>
-      </c>
-      <c r="P57" s="5">
-        <v>3.8063166615051101</v>
-      </c>
-      <c r="Q57" s="5">
-        <f>O57-P57</f>
-        <v>-1.9263166615051102</v>
+        <v>5</v>
+      </c>
+      <c r="P57" s="4">
+        <v>5.9919431496466</v>
+      </c>
+      <c r="Q57" s="4">
+        <f>P57-O57</f>
+        <v>0.99194314964660002</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="J58" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="K58" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>2.56</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
-      </c>
-      <c r="P58" s="5">
-        <v>5.5644873253552403</v>
-      </c>
-      <c r="Q58" s="5">
-        <f>O58-P58</f>
-        <v>-2.0644873253552403</v>
+        <v>2.56</v>
+      </c>
+      <c r="P58" s="4">
+        <v>3.4547209885474901</v>
+      </c>
+      <c r="Q58" s="4">
+        <f>P58-O58</f>
+        <v>0.89472098854749005</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B59">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="I59">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J59" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="K59" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>1.62</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>6.5</v>
-      </c>
-      <c r="P59" s="5">
-        <v>8.5979867386920503</v>
-      </c>
-      <c r="Q59" s="5">
-        <f>O59-P59</f>
-        <v>-2.0979867386920503</v>
+        <v>1.62</v>
+      </c>
+      <c r="P59" s="4">
+        <v>2.3445731475622398</v>
+      </c>
+      <c r="Q59" s="4">
+        <f>P59-O59</f>
+        <v>0.72457314756223967</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B60">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>436</v>
+        <v>352</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>437</v>
+        <v>155</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
+      <c r="G60" t="s">
+        <v>296</v>
+      </c>
       <c r="H60" t="s">
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="I60">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="J60" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="K60" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="M60">
-        <v>4.01</v>
+        <v>6.56</v>
       </c>
       <c r="N60">
         <v>2</v>
       </c>
       <c r="O60">
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="P60" s="5">
-        <v>4.1835511258638203</v>
-      </c>
-      <c r="Q60" s="5">
-        <f>O60-P60</f>
-        <v>-2.1785511258638204</v>
+        <v>3.28</v>
+      </c>
+      <c r="P60" s="4">
+        <v>3.8403574783408798</v>
+      </c>
+      <c r="Q60" s="4">
+        <f>P60-O60</f>
+        <v>0.56035747834088001</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B61">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>363</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>364</v>
+        <v>121</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>365</v>
+        <v>122</v>
       </c>
       <c r="I61">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s">
-        <v>366</v>
+        <v>123</v>
       </c>
       <c r="M61">
-        <v>2.3199999999999998</v>
+        <v>9.77</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="P61" s="5">
-        <v>4.5346870245047004</v>
-      </c>
-      <c r="Q61" s="5">
-        <f>O61-P61</f>
-        <v>-2.2146870245047006</v>
+        <v>4.8849999999999998</v>
+      </c>
+      <c r="P61" s="4">
+        <v>5.4189478714478501</v>
+      </c>
+      <c r="Q61" s="4">
+        <f>P61-O61</f>
+        <v>0.53394787144785028</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="H62" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="I62">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="J62" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="K62" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>30.15</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O62">
-        <v>15</v>
-      </c>
-      <c r="P62" s="5">
-        <v>17.221206495507602</v>
-      </c>
-      <c r="Q62" s="5">
-        <f>O62-P62</f>
-        <v>-2.2212064955076016</v>
+        <v>10.049999999999899</v>
+      </c>
+      <c r="P62" s="4">
+        <v>10.569814083045999</v>
+      </c>
+      <c r="Q62" s="4">
+        <f>P62-O62</f>
+        <v>0.5198140830461</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="B63">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" t="s">
         <v>85</v>
       </c>
-      <c r="B63">
-        <v>111</v>
-      </c>
-      <c r="C63" t="s">
-        <v>374</v>
-      </c>
-      <c r="D63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" t="s">
-        <v>375</v>
-      </c>
-      <c r="F63" t="s">
-        <v>17</v>
-      </c>
       <c r="G63" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="H63" t="s">
-        <v>376</v>
+        <v>127</v>
       </c>
       <c r="I63">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="J63" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="K63" t="s">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>25</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O63">
-        <v>2.25</v>
-      </c>
-      <c r="P63" s="5">
-        <v>4.4732380926165503</v>
-      </c>
-      <c r="Q63" s="5">
-        <f>O63-P63</f>
-        <v>-2.2232380926165503</v>
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="P63" s="4">
+        <v>8.77289804038287</v>
+      </c>
+      <c r="Q63" s="4">
+        <f>P63-O63</f>
+        <v>0.43956470704953965</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B64">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="H64" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="I64">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="J64" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="M64">
-        <v>9.74</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>2</v>
       </c>
       <c r="O64">
-        <v>4.87</v>
-      </c>
-      <c r="P64" s="5">
-        <v>7.09388633994892</v>
-      </c>
-      <c r="Q64" s="5">
-        <f>O64-P64</f>
-        <v>-2.2238863399489199</v>
+        <v>8</v>
+      </c>
+      <c r="P64" s="4">
+        <v>8.2641931207103205</v>
+      </c>
+      <c r="Q64" s="4">
+        <f>P64-O64</f>
+        <v>0.26419312071032053</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B65">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="H65" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="I65">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="J65" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="K65" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="M65">
-        <v>1.67</v>
+        <v>28.51</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O65">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="P65" s="5">
-        <v>3.1360171476168301</v>
-      </c>
-      <c r="Q65" s="5">
-        <f>O65-P65</f>
-        <v>-2.3010171476168302</v>
+        <v>7.1275000000000004</v>
+      </c>
+      <c r="P65" s="4">
+        <v>7.01816149344448</v>
+      </c>
+      <c r="Q65" s="4">
+        <f>P65-O65</f>
+        <v>-0.10933850655552035</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B66">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>378</v>
+        <v>236</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>379</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="I66">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="J66" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K66" t="s">
-        <v>382</v>
+        <v>239</v>
       </c>
       <c r="M66">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>1.75</v>
-      </c>
-      <c r="P66" s="5">
-        <v>4.06302499394591</v>
-      </c>
-      <c r="Q66" s="5">
-        <f>O66-P66</f>
-        <v>-2.31302499394591</v>
+        <v>7</v>
+      </c>
+      <c r="P66" s="4">
+        <v>6.7638066131076702</v>
+      </c>
+      <c r="Q66" s="4">
+        <f>P66-O66</f>
+        <v>-0.23619338689232983</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B67">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="D67" t="s">
         <v>29</v>
       </c>
       <c r="E67" t="s">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="H67" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="I67">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="J67" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="K67" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="M67">
-        <v>2.56</v>
+        <v>25</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67">
-        <v>2.56</v>
-      </c>
-      <c r="P67" s="5">
-        <v>5.3530494162396902</v>
-      </c>
-      <c r="Q67" s="5">
-        <f>O67-P67</f>
-        <v>-2.7930494162396902</v>
+        <v>12.5</v>
+      </c>
+      <c r="P67" s="4">
+        <v>12.1007431084102</v>
+      </c>
+      <c r="Q67" s="4">
+        <f>P67-O67</f>
+        <v>-0.39925689158980049</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
         <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="I68">
-        <v>7.4</v>
+        <v>4.8</v>
       </c>
       <c r="J68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K68" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="M68">
-        <v>140.69999999999999</v>
+        <v>40</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>35.174999999999997</v>
-      </c>
-      <c r="P68" s="5">
-        <v>38.0408815068443</v>
-      </c>
-      <c r="Q68" s="5">
-        <f>O68-P68</f>
-        <v>-2.8658815068443033</v>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="P68" s="4">
+        <v>12.862238789874301</v>
+      </c>
+      <c r="Q68" s="4">
+        <f>P68-O68</f>
+        <v>-0.47109454345899948</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="H69" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="I69">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="J69" t="s">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="K69" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="M69">
-        <v>9.77</v>
+        <v>2.56</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>4.8849999999999998</v>
-      </c>
-      <c r="P69" s="5">
-        <v>7.9391220105583598</v>
-      </c>
-      <c r="Q69" s="5">
-        <f>O69-P69</f>
-        <v>-3.05412201055836</v>
+        <v>2.56</v>
+      </c>
+      <c r="P69" s="4">
+        <v>1.9149701525032401</v>
+      </c>
+      <c r="Q69" s="4">
+        <f>P69-O69</f>
+        <v>-0.64502984749675996</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="H70" t="s">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="I70">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="J70" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="M70">
-        <v>73.099999999999994</v>
+        <v>3.5</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O70">
-        <v>18.274999999999999</v>
-      </c>
-      <c r="P70" s="5">
-        <v>21.374710830610201</v>
-      </c>
-      <c r="Q70" s="5">
-        <f>O70-P70</f>
-        <v>-3.0997108306102028</v>
+        <v>1.75</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1.03111212127064</v>
+      </c>
+      <c r="Q70" s="4">
+        <f>P70-O70</f>
+        <v>-0.71888787872936</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B71">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>412</v>
+        <v>244</v>
       </c>
       <c r="D71" t="s">
         <v>36</v>
       </c>
       <c r="E71" t="s">
-        <v>413</v>
+        <v>245</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="H71" t="s">
-        <v>414</v>
+        <v>246</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="K71" t="s">
-        <v>415</v>
+        <v>247</v>
       </c>
       <c r="M71">
-        <v>1.44</v>
+        <v>26.44</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>1.44</v>
-      </c>
-      <c r="P71" s="5">
-        <v>4.5852218773956102</v>
-      </c>
-      <c r="Q71" s="5">
-        <f>O71-P71</f>
-        <v>-3.1452218773956102</v>
+        <v>8.8133333333333308</v>
+      </c>
+      <c r="P71" s="4">
+        <v>8.0841703839013004</v>
+      </c>
+      <c r="Q71" s="4">
+        <f>P71-O71</f>
+        <v>-0.72916294943203042</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B72">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>397</v>
       </c>
       <c r="H72" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="I72">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J72" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K72" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="M72">
-        <v>2.02</v>
+        <v>11</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O72">
-        <v>2.02</v>
-      </c>
-      <c r="P72" s="5">
-        <v>5.1829041096033697</v>
-      </c>
-      <c r="Q72" s="5">
-        <f>O72-P72</f>
-        <v>-3.1629041096033697</v>
+        <v>5.5</v>
+      </c>
+      <c r="P72" s="4">
+        <v>4.5680164714438298</v>
+      </c>
+      <c r="Q72" s="4">
+        <f>P72-O72</f>
+        <v>-0.93198352855617017</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B73">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>283</v>
+        <v>170</v>
       </c>
       <c r="I73">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K73" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="M73">
-        <v>4.01</v>
+        <v>54</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="P73" s="5">
-        <v>5.32294419437362</v>
-      </c>
-      <c r="Q73" s="5">
-        <f>O73-P73</f>
-        <v>-3.3179441943736201</v>
+        <v>13.5</v>
+      </c>
+      <c r="P73" s="4">
+        <v>12.301482484422699</v>
+      </c>
+      <c r="Q73" s="4">
+        <f>P73-O73</f>
+        <v>-1.1985175155773007</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B74">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="H74" t="s">
-        <v>184</v>
+        <v>410</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="K74" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="M74">
-        <v>16.579999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="P74" s="5">
-        <v>11.6262043744113</v>
-      </c>
-      <c r="Q74" s="5">
-        <f>O74-P74</f>
-        <v>-3.3362043744113006</v>
+        <v>2.02</v>
+      </c>
+      <c r="P74" s="4">
+        <v>0.65890263352109102</v>
+      </c>
+      <c r="Q74" s="4">
+        <f>P74-O74</f>
+        <v>-1.361097366478909</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B75">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>433</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
+        <v>434</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="H75" t="s">
-        <v>144</v>
+        <v>435</v>
       </c>
       <c r="I75">
-        <v>5.0999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="J75" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="K75" t="s">
-        <v>145</v>
+        <v>411</v>
       </c>
       <c r="M75">
-        <v>20</v>
+        <v>2.02</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>10</v>
-      </c>
-      <c r="P75" s="5">
-        <v>13.471493481990301</v>
-      </c>
-      <c r="Q75" s="5">
-        <f>O75-P75</f>
-        <v>-3.4714934819903007</v>
+        <v>2.02</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0.62122665089094797</v>
+      </c>
+      <c r="Q75" s="4">
+        <f>P75-O75</f>
+        <v>-1.3987733491090522</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B76">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>400</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>401</v>
+        <v>94</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="H76" t="s">
-        <v>402</v>
+        <v>96</v>
       </c>
       <c r="I76">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="J76" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="K76" t="s">
-        <v>403</v>
+        <v>97</v>
       </c>
       <c r="M76">
-        <v>4.54</v>
+        <v>62.1</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>2.27</v>
-      </c>
-      <c r="P76" s="5">
-        <v>5.7862612752700802</v>
-      </c>
-      <c r="Q76" s="5">
-        <f>O76-P76</f>
-        <v>-3.5162612752700801</v>
+        <v>20.7</v>
+      </c>
+      <c r="P76" s="4">
+        <v>19.290042745730101</v>
+      </c>
+      <c r="Q76" s="4">
+        <f>P76-O76</f>
+        <v>-1.4099572542698979</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>348</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>191</v>
+        <v>349</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H77" t="s">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="I77">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="J77" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K77" t="s">
-        <v>193</v>
+        <v>351</v>
       </c>
       <c r="M77">
-        <v>9</v>
+        <v>14.24</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>3</v>
-      </c>
-      <c r="P77" s="5">
-        <v>7.0384679337781799</v>
-      </c>
-      <c r="Q77" s="5">
-        <f>O77-P77</f>
-        <v>-4.0384679337781799</v>
+        <v>7.12</v>
+      </c>
+      <c r="P77" s="4">
+        <v>5.5450241232298803</v>
+      </c>
+      <c r="Q77" s="4">
+        <f>P77-O77</f>
+        <v>-1.5749758767701199</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="I78">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="J78" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="K78" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="M78">
-        <v>52</v>
+        <v>117.3</v>
       </c>
       <c r="N78">
         <v>4</v>
       </c>
       <c r="O78">
-        <v>13</v>
-      </c>
-      <c r="P78" s="5">
-        <v>17.215315845873398</v>
-      </c>
-      <c r="Q78" s="5">
-        <f>O78-P78</f>
-        <v>-4.2153158458733984</v>
+        <v>29.324999999999999</v>
+      </c>
+      <c r="P78" s="4">
+        <v>27.2535804539183</v>
+      </c>
+      <c r="Q78" s="4">
+        <f>P78-O78</f>
+        <v>-2.0714195460816995</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B79">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G79" t="s">
         <v>117</v>
       </c>
       <c r="H79" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="I79">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="J79" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="K79" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="M79">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O79">
-        <v>3.8333333333333299</v>
-      </c>
-      <c r="P79" s="5">
-        <v>8.1282348274100507</v>
-      </c>
-      <c r="Q79" s="5">
-        <f>O79-P79</f>
-        <v>-4.2949014940767203</v>
+        <v>8</v>
+      </c>
+      <c r="P79" s="4">
+        <v>5.8683588683285199</v>
+      </c>
+      <c r="Q79" s="4">
+        <f>P79-O79</f>
+        <v>-2.1316411316714801</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B80">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E80" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="H80" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="I80">
-        <v>3.3</v>
+        <v>9.1</v>
       </c>
       <c r="J80" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="K80" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="M80">
-        <v>12</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O80">
-        <v>4</v>
-      </c>
-      <c r="P80" s="5">
-        <v>8.3134580997393108</v>
-      </c>
-      <c r="Q80" s="5">
-        <f>O80-P80</f>
-        <v>-4.3134580997393108</v>
+        <v>35.174999999999997</v>
+      </c>
+      <c r="P80" s="4">
+        <v>32.931841743722501</v>
+      </c>
+      <c r="Q80" s="4">
+        <f>P80-O80</f>
+        <v>-2.2431582562774963</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="D81" t="s">
         <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="H81" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="I81">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="J81" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="K81" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="M81">
-        <v>29</v>
+        <v>35.9</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O81">
-        <v>9.6666666666666607</v>
-      </c>
-      <c r="P81" s="5">
-        <v>14.240204751799601</v>
-      </c>
-      <c r="Q81" s="5">
-        <f>O81-P81</f>
-        <v>-4.5735380851329399</v>
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="P81" s="4">
+        <v>6.4596572794790301</v>
+      </c>
+      <c r="Q81" s="4">
+        <f>P81-O81</f>
+        <v>-2.5153427205209695</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="B82">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>387</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="H82" t="s">
-        <v>389</v>
+        <v>32</v>
       </c>
       <c r="I82">
-        <v>1.3</v>
+        <v>9.5</v>
       </c>
       <c r="J82" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="K82" t="s">
-        <v>390</v>
+        <v>34</v>
       </c>
       <c r="M82">
-        <v>5.18</v>
+        <v>103.13</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O82">
-        <v>2.59</v>
-      </c>
-      <c r="P82" s="5">
-        <v>7.2233908705859902</v>
-      </c>
-      <c r="Q82" s="5">
-        <f>O82-P82</f>
-        <v>-4.6333908705859903</v>
+        <v>34.376666666666601</v>
+      </c>
+      <c r="P82" s="4">
+        <v>31.851585398685501</v>
+      </c>
+      <c r="Q82" s="4">
+        <f>P82-O82</f>
+        <v>-2.5250812679811006</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B83">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="D83" t="s">
         <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="I83">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J83" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="K83" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="M83">
+        <v>9.77</v>
+      </c>
+      <c r="N83">
         <v>2</v>
       </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
       <c r="O83">
-        <v>2</v>
-      </c>
-      <c r="P83" s="5">
-        <v>6.7967350812380802</v>
-      </c>
-      <c r="Q83" s="5">
-        <f>O83-P83</f>
-        <v>-4.7967350812380802</v>
+        <v>4.8849999999999998</v>
+      </c>
+      <c r="P83" s="4">
+        <v>2.3121744840588399</v>
+      </c>
+      <c r="Q83" s="4">
+        <f>P83-O83</f>
+        <v>-2.5728255159411599</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H84" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I84">
-        <v>10.1</v>
+        <v>7.5</v>
       </c>
       <c r="J84" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K84" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M84">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N84">
         <v>4</v>
       </c>
       <c r="O84">
-        <v>25</v>
-      </c>
-      <c r="P84" s="5">
-        <v>29.854434516087899</v>
-      </c>
-      <c r="Q84" s="5">
-        <f>O84-P84</f>
-        <v>-4.854434516087899</v>
+        <v>27.25</v>
+      </c>
+      <c r="P84" s="4">
+        <v>23.689228444009899</v>
+      </c>
+      <c r="Q84" s="4">
+        <f>P84-O84</f>
+        <v>-3.560771555990101</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="I85">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="J85" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="K85" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="M85">
-        <v>26.5</v>
+        <v>85</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>13.25</v>
-      </c>
-      <c r="P85" s="5">
-        <v>18.212041749742902</v>
-      </c>
-      <c r="Q85" s="5">
-        <f>O85-P85</f>
-        <v>-4.9620417497429017</v>
+        <v>21.25</v>
+      </c>
+      <c r="P85" s="4">
+        <v>17.311650525151901</v>
+      </c>
+      <c r="Q85" s="4">
+        <f>P85-O85</f>
+        <v>-3.9383494748480992</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B86">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>391</v>
+        <v>158</v>
       </c>
       <c r="D86" t="s">
         <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>392</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="H86" t="s">
-        <v>393</v>
+        <v>161</v>
       </c>
       <c r="I86">
-        <v>1.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J86" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="K86" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="M86">
-        <v>1.73</v>
+        <v>32</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>1.73</v>
-      </c>
-      <c r="P86" s="5">
-        <v>7.3693844424838604</v>
-      </c>
-      <c r="Q86" s="5">
-        <f>O86-P86</f>
-        <v>-5.6393844424838608</v>
+        <v>16</v>
+      </c>
+      <c r="P86" s="4">
+        <v>11.9859669155957</v>
+      </c>
+      <c r="Q86" s="4">
+        <f>P86-O86</f>
+        <v>-4.0140330844043</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B87">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E87" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="I87">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="J87" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="K87" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>51</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
-      </c>
-      <c r="P87" s="5">
-        <v>9.4828677308919698</v>
-      </c>
-      <c r="Q87" s="5">
-        <f>O87-P87</f>
-        <v>-5.9828677308919698</v>
+        <v>17</v>
+      </c>
+      <c r="P87" s="4">
+        <v>12.9388118687997</v>
+      </c>
+      <c r="Q87" s="4">
+        <f>P87-O87</f>
+        <v>-4.0611881312003</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B88">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="F88" t="s">
         <v>85</v>
       </c>
       <c r="G88" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="I88">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="J88" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="K88" t="s">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="M88">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O88">
-        <v>3</v>
-      </c>
-      <c r="P88" s="5">
-        <v>9.0711197312070304</v>
-      </c>
-      <c r="Q88" s="5">
-        <f>O88-P88</f>
-        <v>-6.0711197312070304</v>
+        <v>21.25</v>
+      </c>
+      <c r="P88" s="4">
+        <v>16.9431993206525</v>
+      </c>
+      <c r="Q88" s="4">
+        <f>P88-O88</f>
+        <v>-4.3068006793475</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B89">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>316</v>
+        <v>205</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>317</v>
+        <v>206</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="H89" t="s">
-        <v>318</v>
+        <v>207</v>
       </c>
       <c r="I89">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="J89" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="K89" t="s">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="M89">
-        <v>4.8</v>
+        <v>37</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>4.8</v>
-      </c>
-      <c r="P89" s="5">
-        <v>10.985101337553701</v>
-      </c>
-      <c r="Q89" s="5">
-        <f>O89-P89</f>
-        <v>-6.185101337553701</v>
+        <v>12.3333333333333</v>
+      </c>
+      <c r="P89" s="4">
+        <v>7.9806369928397398</v>
+      </c>
+      <c r="Q89" s="4">
+        <f>P89-O89</f>
+        <v>-4.3526963404935604</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C90" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="D90" t="s">
         <v>36</v>
       </c>
       <c r="E90" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="H90" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J90" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="K90" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="M90">
-        <v>2.5649999999999999</v>
+        <v>8</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O90">
-        <v>2.5649999999999999</v>
-      </c>
-      <c r="P90" s="5">
-        <v>8.8223805832044206</v>
-      </c>
-      <c r="Q90" s="5">
-        <f>O90-P90</f>
-        <v>-6.2573805832044211</v>
+        <v>4</v>
+      </c>
+      <c r="P90" s="4">
+        <v>-0.56017377523307899</v>
+      </c>
+      <c r="Q90" s="4">
+        <f>P90-O90</f>
+        <v>-4.5601737752330793</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B91">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="H91" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="I91">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="J91" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="K91" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="M91">
-        <v>11.72</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="N91">
         <v>2</v>
       </c>
       <c r="O91">
-        <v>5.86</v>
-      </c>
-      <c r="P91" s="5">
-        <v>12.4226862713433</v>
-      </c>
-      <c r="Q91" s="5">
-        <f>O91-P91</f>
-        <v>-6.5626862713433001</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P91" s="4">
+        <v>0.33636738428311103</v>
+      </c>
+      <c r="Q91" s="4">
+        <f>P91-O91</f>
+        <v>-4.5636326157168892</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>425</v>
       </c>
       <c r="D92" t="s">
         <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>67</v>
+        <v>426</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H92" t="s">
-        <v>69</v>
+        <v>427</v>
       </c>
       <c r="I92">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="J92" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="K92" t="s">
-        <v>71</v>
+        <v>428</v>
       </c>
       <c r="M92">
-        <v>43.6</v>
+        <v>7.42</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>14.533333333333299</v>
-      </c>
-      <c r="P92" s="5">
-        <v>21.286979467050202</v>
-      </c>
-      <c r="Q92" s="5">
-        <f>O92-P92</f>
-        <v>-6.7536461337169023</v>
+        <v>3.71</v>
+      </c>
+      <c r="P92" s="4">
+        <v>-0.87930882125739196</v>
+      </c>
+      <c r="Q92" s="4">
+        <f>P92-O92</f>
+        <v>-4.5893088212573918</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>61</v>
+        <v>306</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G93" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="H93" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="I93">
-        <v>7.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J93" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="K93" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="M93">
-        <v>39.96</v>
+        <v>30</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O93">
-        <v>9.99</v>
-      </c>
-      <c r="P93" s="5">
-        <v>16.746400521017598</v>
-      </c>
-      <c r="Q93" s="5">
-        <f>O93-P93</f>
-        <v>-6.7564005210175981</v>
+        <v>15</v>
+      </c>
+      <c r="P93" s="4">
+        <v>10.4006852474638</v>
+      </c>
+      <c r="Q93" s="4">
+        <f>P93-O93</f>
+        <v>-4.5993147525362001</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B94">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H94" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="I94">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J94" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K94" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="M94">
-        <v>9.77</v>
+        <v>15</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>4.8849999999999998</v>
-      </c>
-      <c r="P94" s="5">
-        <v>11.985424990009101</v>
-      </c>
-      <c r="Q94" s="5">
-        <f>O94-P94</f>
-        <v>-7.1004249900091008</v>
+        <v>15</v>
+      </c>
+      <c r="P94" s="4">
+        <v>10.1355691284774</v>
+      </c>
+      <c r="Q94" s="4">
+        <f>P94-O94</f>
+        <v>-4.8644308715226003</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B95">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="I95">
-        <v>3.1</v>
+        <v>11.5</v>
       </c>
       <c r="J95" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="K95" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="M95">
-        <v>8.1999999999999993</v>
+        <v>164.4</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O95">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P95" s="5">
-        <v>11.280699692689399</v>
-      </c>
-      <c r="Q95" s="5">
-        <f>O95-P95</f>
-        <v>-7.1806996926893998</v>
+        <v>41.1</v>
+      </c>
+      <c r="P95" s="4">
+        <v>35.543999825760999</v>
+      </c>
+      <c r="Q95" s="4">
+        <f>P95-O95</f>
+        <v>-5.5560001742390028</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B96">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
+        <v>355</v>
       </c>
       <c r="D96" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E96" t="s">
-        <v>134</v>
+        <v>356</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="H96" t="s">
-        <v>135</v>
+        <v>357</v>
       </c>
       <c r="I96">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="J96" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K96" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="M96">
-        <v>31.5</v>
+        <v>30.75</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O96">
-        <v>10.5</v>
-      </c>
-      <c r="P96" s="5">
-        <v>17.7227245111226</v>
-      </c>
-      <c r="Q96" s="5">
-        <f>O96-P96</f>
-        <v>-7.2227245111225997</v>
+        <v>15.375</v>
+      </c>
+      <c r="P96" s="4">
+        <v>9.3357486222062604</v>
+      </c>
+      <c r="Q96" s="4">
+        <f>P96-O96</f>
+        <v>-6.0392513777937396</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B97">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
       </c>
       <c r="E97" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="H97" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="I97">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="K97" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="M97">
-        <v>9.74</v>
+        <v>40</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O97">
-        <v>4.87</v>
-      </c>
-      <c r="P97" s="5">
-        <v>12.5908840712023</v>
-      </c>
-      <c r="Q97" s="5">
-        <f>O97-P97</f>
-        <v>-7.7208840712022999</v>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="P97" s="4">
+        <v>7.2093122036424999</v>
+      </c>
+      <c r="Q97" s="4">
+        <f>P97-O97</f>
+        <v>-6.1240211296908003</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B98">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="J98" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="K98" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="M98">
-        <v>15</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>7.5</v>
-      </c>
-      <c r="P98" s="5">
-        <v>15.4023623649495</v>
-      </c>
-      <c r="Q98" s="5">
-        <f>O98-P98</f>
-        <v>-7.9023623649495001</v>
+        <v>35.174999999999997</v>
+      </c>
+      <c r="P98" s="4">
+        <v>29.006806185438599</v>
+      </c>
+      <c r="Q98" s="4">
+        <f>P98-O98</f>
+        <v>-6.1681938145613984</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B99">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E99" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="H99" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="I99">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J99" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="K99" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="M99">
-        <v>2.56</v>
+        <v>45</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O99">
-        <v>2.56</v>
-      </c>
-      <c r="P99" s="5">
-        <v>10.484589030559601</v>
-      </c>
-      <c r="Q99" s="5">
-        <f>O99-P99</f>
-        <v>-7.9245890305596003</v>
+        <v>15</v>
+      </c>
+      <c r="P99" s="4">
+        <v>7.5913283246393402</v>
+      </c>
+      <c r="Q99" s="4">
+        <f>P99-O99</f>
+        <v>-7.4086716753606598</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B100">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C100" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G100" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="H100" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="I100">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="J100" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="K100" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="M100">
-        <v>8.1999999999999993</v>
+        <v>56.7</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P100" s="5">
-        <v>12.041397102604501</v>
-      </c>
-      <c r="Q100" s="5">
-        <f>O100-P100</f>
-        <v>-7.9413971026045012</v>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="P100" s="4">
+        <v>7.2585823282449304</v>
+      </c>
+      <c r="Q100" s="4">
+        <f>P100-O100</f>
+        <v>-11.641417671755068</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="B101">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>419</v>
+        <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>420</v>
+        <v>58</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H101" t="s">
-        <v>421</v>
+        <v>59</v>
       </c>
       <c r="I101">
-        <v>0.8</v>
+        <v>7.1</v>
       </c>
       <c r="J101" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="K101" t="s">
-        <v>394</v>
+        <v>60</v>
       </c>
       <c r="M101">
-        <v>1.73</v>
+        <v>180</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>1.73</v>
-      </c>
-      <c r="P101" s="5">
-        <v>10.5242433173041</v>
-      </c>
-      <c r="Q101" s="5">
-        <f>O101-P101</f>
-        <v>-8.7942433173040993</v>
+        <v>36</v>
+      </c>
+      <c r="P101" s="4">
+        <v>22.726170291645602</v>
+      </c>
+      <c r="Q101" s="4">
+        <f>P101-O101</f>
+        <v>-13.273829708354398</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B102">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>269</v>
+        <v>88</v>
       </c>
       <c r="D102" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>270</v>
+        <v>89</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H102" t="s">
-        <v>271</v>
+        <v>90</v>
       </c>
       <c r="I102">
-        <v>2.7</v>
+        <v>6.1</v>
       </c>
       <c r="J102" t="s">
         <v>80</v>
       </c>
       <c r="K102" t="s">
-        <v>272</v>
+        <v>91</v>
       </c>
       <c r="M102">
-        <v>5.25</v>
+        <v>177.5</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O102">
-        <v>2.625</v>
-      </c>
-      <c r="P102" s="5">
-        <v>11.6602040354393</v>
-      </c>
-      <c r="Q102" s="5">
-        <f>O102-P102</f>
-        <v>-9.0352040354392997</v>
+        <v>35.5</v>
+      </c>
+      <c r="P102" s="4">
+        <v>20.483537703950201</v>
+      </c>
+      <c r="Q102" s="4">
+        <f>P102-O102</f>
+        <v>-15.016462296049799</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B103">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="D103" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
@@ -9832,89 +9827,38 @@
         <v>18</v>
       </c>
       <c r="H103" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="I103">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="J103" t="s">
         <v>18</v>
       </c>
       <c r="K103" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="M103">
-        <v>15</v>
+        <v>189.9</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O103">
-        <v>5</v>
-      </c>
-      <c r="P103" s="5">
-        <v>15.0063037856031</v>
-      </c>
-      <c r="Q103" s="5">
-        <f>O103-P103</f>
-        <v>-10.0063037856031</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>212</v>
-      </c>
-      <c r="C104" t="s">
-        <v>439</v>
-      </c>
-      <c r="D104" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104" t="s">
-        <v>440</v>
-      </c>
-      <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>397</v>
-      </c>
-      <c r="H104" t="s">
-        <v>441</v>
-      </c>
-      <c r="I104">
-        <v>-0.3</v>
-      </c>
-      <c r="J104" t="s">
-        <v>126</v>
-      </c>
-      <c r="K104" t="s">
-        <v>366</v>
-      </c>
-      <c r="M104">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="O104">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="P104" s="5">
-        <v>12.964093033111</v>
-      </c>
-      <c r="Q104" s="5">
-        <f>O104-P104</f>
-        <v>-10.644093033111</v>
+        <v>37.979999999999997</v>
+      </c>
+      <c r="P103" s="4">
+        <v>22.2358392206899</v>
+      </c>
+      <c r="Q103" s="4">
+        <f>P103-O103</f>
+        <v>-15.744160779310096</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q104">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q104">
-      <sortCondition descending="1" ref="Q1:Q104"/>
+  <autoFilter ref="A1:Q103" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q103">
+      <sortCondition descending="1" ref="Q1:Q103"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
